--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868272.1809325989</v>
+        <v>-870870.0125052347</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>196.7820345342624</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>200.9160287000554</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>38.04469089638087</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>230.7871511611226</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>242.2098380812511</v>
       </c>
       <c r="G5" t="n">
-        <v>47.62603538970042</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>195.5719861458662</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>174.621919430693</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4018336977199</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>150.9601371840625</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1342,16 +1342,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>163.6864038852921</v>
+        <v>171.5106884693827</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.36569740310337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>90.14863908058081</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>118.6708469029954</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>86.80636739625321</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>13.72582864853771</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>180.330238561827</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>59.96838802184554</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="F28" t="n">
-        <v>103.5531674807553</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>255.3192535276011</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002298</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1367.208738248819</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C2" t="n">
-        <v>998.2462213084073</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>639.9805227016568</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>254.1922701034126</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312941</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.808578312941</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="Y2" t="n">
-        <v>1753.808578312941</v>
+        <v>1897.83159218888</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938516</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.556931114678</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>809.3867773625709</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.450594434664</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>490.3339550223283</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>342.4208614399352</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>195.5309139420248</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1439.817372234358</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1439.817372234358</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X4" t="n">
-        <v>1211.827821336341</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y4" t="n">
-        <v>991.0352421928106</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223196</v>
+        <v>1767.878520285688</v>
       </c>
       <c r="C5" t="n">
-        <v>883.8708262827843</v>
+        <v>1767.878520285688</v>
       </c>
       <c r="D5" t="n">
-        <v>525.6051276760338</v>
+        <v>1409.612821678938</v>
       </c>
       <c r="E5" t="n">
-        <v>525.6051276760338</v>
+        <v>1023.824569080694</v>
       </c>
       <c r="F5" t="n">
-        <v>114.6192228864263</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
         <v>66.5121164321834</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524209</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263129</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287318</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>797.4834000772721</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1538.061203161919</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1248.958336287563</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1248.958336287563</v>
       </c>
       <c r="W7" t="n">
-        <v>1207.121415805529</v>
+        <v>959.5411662506019</v>
       </c>
       <c r="X7" t="n">
-        <v>979.1318649075118</v>
+        <v>731.5516153525846</v>
       </c>
       <c r="Y7" t="n">
-        <v>979.1318649075118</v>
+        <v>510.7590362090544</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.9977502341333</v>
+        <v>773.7942044041906</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0615673062264</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
         <v>456.9449278938906</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>1003.987301132151</v>
+        <v>1183.432220132448</v>
       </c>
       <c r="X10" t="n">
-        <v>775.9977502341333</v>
+        <v>955.4426692344304</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.9977502341333</v>
+        <v>955.4426692344304</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2395.078540748843</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2395.078540748843</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2395.078540748843</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5358,22 +5358,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.530292372932</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C16" t="n">
-        <v>853.5941094450255</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D16" t="n">
-        <v>703.4774700326898</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>555.5643764502967</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>408.6744289523863</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V16" t="n">
-        <v>1942.37805728168</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W16" t="n">
-        <v>1652.96088724472</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X16" t="n">
-        <v>1424.971336346702</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.178757203172</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C19" t="n">
-        <v>493.2161050975141</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,31 +5768,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2045.209862480144</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1790.525374274257</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6002,37 +6002,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,13 +6300,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1056.376371837086</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>887.4401889091791</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>737.3235494968434</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E28" t="n">
-        <v>589.4104559144503</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1238.024836667326</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>612.4182386381636</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.848833509951</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1014.859282611934</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>794.0667034684034</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,22 +7828,22 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>30.3692565058949</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>231.2582814363246</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>135.3838017544975</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.9600170416561</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>229.7596188006365</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>55.73584717546836</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.00954930701832</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>62.35543909864924</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>80.44045370237463</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>131.6952193743935</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>105.8542358274172</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>117.6820817884486</v>
       </c>
       <c r="F28" t="n">
-        <v>41.86788054217594</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>31.20374480898994</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-5.044853423896711e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-3.197442310920451e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -26326,10 +26326,10 @@
         <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
+        <v>221965.3149147516</v>
+      </c>
+      <c r="H2" t="n">
         <v>221965.3149147517</v>
-      </c>
-      <c r="H2" t="n">
-        <v>221965.3149147516</v>
       </c>
       <c r="I2" t="n">
         <v>221965.3149147517</v>
@@ -26341,16 +26341,16 @@
         <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
         <v>225786.486712678</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363162</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55720.99847008444</v>
+        <v>55720.99847008432</v>
       </c>
       <c r="C4" t="n">
         <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26433,10 +26433,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768923</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26445,16 +26445,16 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486239</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486243</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486237</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1077233.199502095</v>
+        <v>-1077593.282517812</v>
       </c>
       <c r="C6" t="n">
-        <v>-174720.3745539415</v>
+        <v>-174720.3745539414</v>
       </c>
       <c r="D6" t="n">
         <v>28718.36705816444</v>
       </c>
       <c r="E6" t="n">
-        <v>-214516.8210382794</v>
+        <v>-214551.5589637152</v>
       </c>
       <c r="F6" t="n">
-        <v>110895.6407690757</v>
+        <v>110860.90284364</v>
       </c>
       <c r="G6" t="n">
-        <v>110895.6407690757</v>
+        <v>110860.9028436397</v>
       </c>
       <c r="H6" t="n">
-        <v>110895.6407690756</v>
+        <v>110860.90284364</v>
       </c>
       <c r="I6" t="n">
-        <v>110895.6407690756</v>
+        <v>110860.90284364</v>
       </c>
       <c r="J6" t="n">
-        <v>-56709.53704090689</v>
+        <v>-56744.27496634258</v>
       </c>
       <c r="K6" t="n">
-        <v>61785.54806302126</v>
+        <v>61750.81013758556</v>
       </c>
       <c r="L6" t="n">
-        <v>85256.64928026852</v>
+        <v>85256.64928026873</v>
       </c>
       <c r="M6" t="n">
-        <v>19629.33933838856</v>
+        <v>19629.3393383885</v>
       </c>
       <c r="N6" t="n">
         <v>104684.3672739003</v>
       </c>
       <c r="O6" t="n">
-        <v>104684.3672739003</v>
+        <v>104684.3672739004</v>
       </c>
       <c r="P6" t="n">
         <v>104684.3672739003</v>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26802,10 +26802,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022537</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>50.56800537472074</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>181.7880839723175</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>128.2619091484233</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,10 +27594,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>164.6662076604603</v>
       </c>
       <c r="G5" t="n">
-        <v>363.295690263753</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>23.97696313030303</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>111.901078905898</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>60.52853637454189</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>218.7709634944065</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>122.8365944512989</v>
+        <v>115.0123098672083</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32078,25 +32078,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>328.0496171437451</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>480.9378105598568</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,16 +37944,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
